--- a/Analyses/main study - LLM/output/rescue robots.xlsx
+++ b/Analyses/main study - LLM/output/rescue robots.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D67"/>
+  <dimension ref="A1:D77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,12 +463,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>autonomy</t>
+          <t>new places</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Rigid robots can operate independently and make decisions without human intervention.</t>
+          <t>Rigid robots can search in places where people cannot reach, such as underwater caves or narrow openings.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,12 +485,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>environmental adaptability</t>
+          <t>resilience</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Rigid robots can withstand adverse conditions and operate in various environments, including air, water, and ground.</t>
+          <t>Rigid robots can withstand adverse conditions, making them more effective in disaster areas.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -507,12 +507,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>specialized abilities</t>
+          <t>special abilities</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Rigid robots can perform special tasks, such as flying, hacking doors, and sending images to control centers.</t>
+          <t>Rigid robots can perform special tasks like flying, hacking doors, or sending images to the control center with cameras.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -529,12 +529,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>speed and efficiency</t>
+          <t>environment-independent</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Rigid robots can work faster and more accurately than humans, making them ideal for search and rescue operations.</t>
+          <t>Rigid robots can operate in various environments, including air, water, and ground, and can withstand toxic or narrow environments.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -551,12 +551,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>accessibility</t>
+          <t>more power</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Rigid robots can reach inaccessible areas, such as small openings, and navigate through debris.</t>
+          <t>Rigid robots can have more strength than humans, allowing them to perform tasks that require heavy lifting or drilling.</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -573,12 +573,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>delivery of essential goods</t>
+          <t>deliver supplies</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Soft robots can deliver vital supplies, such as food, water, and medicine, to victims in hard-to-reach areas.</t>
+          <t>Soft robots can deliver essential goods like food, water, and medicine to victims in hard-to-reach areas.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -595,12 +595,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>adaptability</t>
+          <t>accessible</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Soft robots can adapt to complex problems and enter unstable areas due to their small size and high flexibility.</t>
+          <t>Soft robots can reach inaccessible places due to their small size and high flexibility, allowing them to supply victims with vital resources.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -622,7 +622,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Soft robots can provide care for victims, such as supplying them with food and water, during long rescue operations.</t>
+          <t>Soft robots can provide care for victims during the rescue operation, such as delivering food and medicine.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -639,12 +639,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>accessibility</t>
+          <t>adaptability</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Soft robots can reach additional hard-to-reach places and provide temporary supply to victims.</t>
+          <t>Soft robots can adapt to complex problems and changing situations, making them effective in disaster areas.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -661,12 +661,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>versatility</t>
+          <t>temporary supply</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Soft robots can perform various tasks, such as delivering vital supplies, providing care, and entering unstable areas.</t>
+          <t>Soft robots can provide temporary supply of vital resources to victims until human rescuers arrive.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -688,7 +688,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Rigid robots are limited to specific tasks and cannot adapt to new situations.</t>
+          <t>Rigid robots are limited to specific tasks and may not be able to adapt to unexpected situations, unlike humans who can perform multiple tasks simultaneously.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Technical errors</t>
+          <t>Technical limitations</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Rigid robots are prone to technical errors, such as faulty programming and battery life issues.</t>
+          <t>Rigid robots are prone to technical failures, errors, and limitations, such as battery life, technical connection problems, and faulty programming, which can hinder their effectiveness in rescue operations.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -727,12 +727,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Lack of human judgment</t>
+          <t>Lack of human-like abilities</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Rigid robots lack human judgment and pattern recognition, leading to potential mistakes.</t>
+          <t>Rigid robots lack human-like abilities, such as pattern recognition, improvisation, and communication, which are essential in rescue operations.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -749,12 +749,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Immature technology</t>
+          <t>Dependence on algorithms</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Rigid robots are still in the development stage and are not yet efficient in all situations.</t>
+          <t>Rigid robots rely heavily on algorithms, which can be prone to errors, and may not be able to assess situations like humans.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -771,12 +771,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Limited communication</t>
+          <t>Immaturity of technology</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Rigid robots have limited communication capabilities, making it difficult for them to provide crucial information to victims.</t>
+          <t>Rigid robots are still in the development stage and may not be efficient in all situations, requiring further development and maintenance.</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -793,12 +793,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Susceptible to damage</t>
+          <t>Susceptibility to damage</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Soft robots are prone to damage and degradation due to their flexible materials.</t>
+          <t>Soft robots are prone to damage, degradation, and destruction, which can limit their effectiveness in rescue operations.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -820,7 +820,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Soft robots have limited durability and may break or become defective in dangerous situations.</t>
+          <t>Soft robots have a limited lifespan and may not be able to withstand harsh environments, leading to a shorter operational time.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -842,7 +842,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Soft robots may not be robust enough to withstand harsh environments and situations.</t>
+          <t>Soft robots may not be robust enough to withstand the demands of rescue operations, leading to breakage or malfunction.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -864,7 +864,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Soft robots have limited load-bearing capacity, making them less effective in certain rescue situations.</t>
+          <t>Soft robots may not be able to carry heavy loads or withstand intense forces, limiting their ability to perform certain tasks.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -886,7 +886,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Soft robots may have limited energy sources, leading to concerns about their runtime and effectiveness.</t>
+          <t>Soft robots may have limited energy sources, leading to concerns about their runtime and ability to perform tasks without interruption.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -908,7 +908,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Prevents people from having to work under difficult or dangerous conditions to increase safety.</t>
+          <t>Rigid robots can prevent people from working in difficult or dangerous conditions, increasing safety and reducing risks to human rescuers.</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -930,7 +930,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Can be operated by experts via remote control or autonomous systems to perform operations from a safe distance.</t>
+          <t>Rigid robots can be operated by experts via remote control or autonomous systems, minimizing risks associated with autonomy and allowing for operations from a safe distance.</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Robots can often act faster than humans and increase the speed of emergency interventions.</t>
+          <t>Rigid robots can act faster than humans and increase the speed of emergency interventions, leading to improved rescue outcomes.</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -974,7 +974,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Can be precisely controlled and accomplish their tasks reliably and reproducibly.</t>
+          <t>Rigid robots can accomplish their tasks reliably and reproducibly, provided they are well-programmed and built, reducing the risk of human error.</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -996,7 +996,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Reduces deployment of human rescue forces in dangerous situations, protecting their lives.</t>
+          <t>Rigid robots can reduce the deployment of human rescue forces in dangerous situations, protecting them from harm and reducing the risk of injury or death.</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1018,7 +1018,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Can access narrow spaces that are not accessible to people due to their flexibility.</t>
+          <t>Soft robots are adaptable and can access narrow spaces that are not accessible to people, making them ideal for search and rescue operations in tight spaces.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1040,7 +1040,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Poses only a low risk to the victims due to their flexibility and adaptability.</t>
+          <t>Soft robots pose a lower risk of injury to victims due to their flexibility and organic construction method, making them a safer option for rescue operations.</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1057,12 +1057,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>precise work</t>
+          <t>delivery of supplies</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Can perform precise work and deliver supplies in emergency situations.</t>
+          <t>Soft robots can deliver vital supplies such as food, water, and medication to victims in hard-to-reach areas, providing critical support in emergency situations.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1079,12 +1079,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>care of victims</t>
+          <t>precise work</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Can provide direct help and care to victims in need.</t>
+          <t>Soft robots can perform precise work in delicate situations, such as providing direct help to victims or conducting exploration and assessment of dangerous areas.</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1106,7 +1106,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Can adapt to different situations and environments, making them more effective in emergency responses.</t>
+          <t>Soft robots can adapt to different situations and environments, making them a valuable asset in search and rescue operations where flexibility is key.</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Rigid robots may malfunction or have technical defects that can harm victims.</t>
+          <t>Rigid robots may malfunction or have technical defects that can cause harm to victims or hinder rescue efforts.</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Rigid robots may not be able to handle injured people with care and precision.</t>
+          <t>Rigid robots may not be able to handle injured people with care, potentially causing further harm.</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1167,12 +1167,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>material and production defects</t>
+          <t>no moral considerations</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Rigid robots can have material or production defects that can cause damage during rescue operations.</t>
+          <t>Autonomous rigid robots lack the ability to make moral judgments, which can lead to prioritization issues in rescue situations.</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1189,12 +1189,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>control over robot actions</t>
+          <t>vulnerable to hackers</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>It is uncertain how rigid robots will react in certain situations and whether control over them can be maintained.</t>
+          <t>Rigid robots can be vulnerable to cyber attacks, which can compromise their functionality and put lives at risk.</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1216,7 +1216,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Rigid robots may endanger human lives due to malfunctions, misjudgments, or lack of sensitivity.</t>
+          <t>Rigid robots may malfunction or make mistakes that can put human lives in danger, especially in complex or unexpected situations.</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1238,7 +1238,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Soft robots may be less precise and accurate due to their flexible soft structures.</t>
+          <t>Soft robots may lack precision in their movements or actions, which can lead to inaccurate or ineffective rescue efforts.</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1260,7 +1260,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Soft robots can be easily damaged or broken during rescue operations.</t>
+          <t>Soft robots are more susceptible to damage, especially in dangerous or harsh environments, which can render them ineffective.</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1282,7 +1282,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Soft robots may have lower precision and accuracy compared to rigid robots.</t>
+          <t>Soft robots may not be able to perform tasks with the same level of precision as rigid robots, which can impact their effectiveness.</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1304,7 +1304,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Soft robots may be less reliable due to their soft body and potential for damage.</t>
+          <t>Soft robots may be less reliable due to their soft body and potential for damage, which can lead to doubts about their effectiveness.</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1321,12 +1321,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>accuracy</t>
+          <t>easily damaged</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Soft robots may have limited accuracy due to their flexibility and potential for damage.</t>
+          <t>Soft robots are more prone to damage or breakage, especially in situations where they may be exposed to rough handling or harsh environments.</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>supply</t>
+          <t>autonomous support</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Rigid robots can provide necessary supplies.</t>
+          <t>Rigid robots can provide autonomous support in rescue operations.</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1365,12 +1365,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>no fear</t>
+          <t>can work complementary</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Rigid robots do not evoke fear in humans.</t>
+          <t>Rigid robots can complement human activities in rescue operations.</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1387,12 +1387,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>autonomous support</t>
+          <t>supply</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Rigid robots can offer autonomous support in rescue operations.</t>
+          <t>Rigid robots can supply necessary resources in rescue operations.</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1409,12 +1409,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>can work complementary</t>
+          <t>no fear</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Rigid robots can complement human activities in rescue operations.</t>
+          <t>Rigid robots do not evoke fear in victims, making them more approachable.</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1436,7 +1436,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Soft robots have a comforting, non-mechanical appearance.</t>
+          <t>Soft robots have a comforting appearance, which can calm victims in rescue situations.</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Soft robots can give victims hope for rescue, boosting their endurance.</t>
+          <t>Soft robots can give victims hope of being rescued, which can impact their endurance.</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Soft robots have adaptable designs for various rescue situations.</t>
+          <t>Soft robots' flexible designs allow them to adapt to various rescue situations.</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1502,7 +1502,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Soft robots can supply care to initially unreachable people.</t>
+          <t>Soft robots can supply care to people who are initially unreachable.</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1524,7 +1524,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Victims are more likely to trust soft robots.</t>
+          <t>Victims are more likely to trust soft robots due to their non-mechanical appearance.</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1546,7 +1546,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Rigid robots lack human closeness and empathy, which is essential in rescue situations.</t>
+          <t>Rigid robots lack human closeness and may evoke fear or uncertainty in victims, who may need emotional support during rescue operations.</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1568,7 +1568,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Rigid robots have limited communication capabilities, leading to misunderstandings and fear.</t>
+          <t>Rigid robots may struggle to communicate effectively with victims, particularly in crisis situations where human communication is vital.</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1590,7 +1590,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Rigid robots are perceived as impersonal, lacking the emotional support and comfort that humans provide.</t>
+          <t>Rigid robots are perceived as impersonal and may not provide the emotional comfort and support that victims need during rescue operations.</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1612,7 +1612,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Rigid robots can be intimidating, especially for children and people in crisis situations.</t>
+          <t>Rigid robots may appear intimidating or frightening to some individuals, such as children, which could exacerbate the rescue situation.</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Rigid robots lack emotions and compassion, which is crucial in providing comfort and support to victims.</t>
+          <t>Rigid robots lack emotions and compassion, which are essential for providing comfort and support to victims during rescue operations.</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1656,7 +1656,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Soft robots may have an unusual appearance that could cause irritation or discomfort.</t>
+          <t>Soft robots may have an unusual appearance that could cause irritation or unease in victims, potentially hindering the rescue operation.</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1678,7 +1678,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Soft robots may influence interactions in unpredictable ways, affecting the rescue outcome.</t>
+          <t>Soft robots may influence the interactions between the robot and the victim in unpredictable ways, which could impact the success of the rescue operation.</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1700,7 +1700,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Rigid robots can make logical decisions without emotional influence.</t>
+          <t>Rigid robots can make logical decisions without emotional involvement, leading to more efficient rescue operations.</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1722,7 +1722,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Rigid robots operate without emotional involvement, making them more efficient.</t>
+          <t>The lack of emotions in rigid robots enables them to assess situations objectively and make decisions without emotional bias.</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1744,7 +1744,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Rigid robots can act independently without human supervision.</t>
+          <t>Rigid robots can operate independently, without the need for human presence, making them more efficient in rescue operations.</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1761,12 +1761,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>self-sufficient</t>
+          <t>no human problems</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Rigid robots do not require human needs like food, water, and rest.</t>
+          <t>Rigid robots do not require basic human needs like food, water, and rest, making them more reliable in rescue situations.</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1788,7 +1788,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Rigid robots can learn and improve their performance over time.</t>
+          <t>Rigid robots can learn from experiences and improve their performance over time, leading to better rescue outcomes.</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1810,7 +1810,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Soft robots can appear more natural and familiar due to their animal-like design.</t>
+          <t>Soft robots that resemble living organisms can appear more familiar and less artificial, inspiring trust in those they interact with.</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -1832,7 +1832,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Soft robots can be designed to resemble humans, making them more relatable.</t>
+          <t>Soft robots with human-like features can create a sense of comfort and familiarity, making them more acceptable in rescue situations.</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -1854,7 +1854,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Soft robots can be designed to interact with children in a more natural way.</t>
+          <t>Soft robots that mimic animal behavior can be particularly effective in interacting with children, providing a sense of comfort and reassurance.</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -1876,7 +1876,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Soft robots can be perceived as more trustworthy due to their non-threatening design.</t>
+          <t>The organic appearance of soft robots can contribute to a sense of trustworthiness, making them more effective in rescue operations.</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -1893,17 +1893,237 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>inspired by organisms</t>
+          <t>behavior</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Soft robots can be designed to mimic the behavior of living organisms.</t>
+          <t>The behavior of soft robots, inspired by living organisms, can be more relatable and comforting to those in need of rescue.</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
           <t>AP</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>rigid</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>lack of humanity</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Rigid robots are seen as lacking human qualities, such as empathy and emotional support, which are essential in rescue situations.</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>AN</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>rigid</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>no emotion</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>The absence of emotions in rigid robots makes them appear inhuman and incapable of providing comfort to victims.</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>AN</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>rigid</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>lack of empathy</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Rigid robots are perceived as unable to understand and respond to the emotional needs of victims, leading to improper treatment.</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>AN</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>rigid</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>errors in autonomy</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Autonomous rigid robots may make mistakes due to their limited ability to judge complex relationships, which can be detrimental in rescue situations.</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>AN</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>rigid</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>lack of human judgment</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Rigid robots are seen as lacking the human judgment and decision-making ability necessary to navigate complex rescue scenarios.</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>AN</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>soft</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>imitation of nature</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Soft robots with human-like characteristics may not be well received by everyone and could cause discomfort or unease.</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>AN</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>soft</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>intimidating appearance</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Soft robots may have an intimidating appearance, which could frighten or deter victims from seeking help.</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>AN</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>soft</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>unexpectedly destroyed</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Soft robots may be vulnerable to destruction due to fear or misunderstanding, which could hinder their effectiveness in rescue situations.</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>AN</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>soft</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>humanization</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Soft robots may be perceived as too human-like, leading to unrealistic expectations or discomfort among victims.</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>AN</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>soft</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>limited autonomy</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Soft robots may have limited autonomy, which could restrict their ability to respond effectively in complex rescue scenarios.</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>AN</t>
         </is>
       </c>
     </row>
